--- a/xlsx/小罗伯特·卢卡斯_intext.xlsx
+++ b/xlsx/小罗伯特·卢卡斯_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="346">
   <si>
     <t>小罗伯特·卢卡斯</t>
   </si>
@@ -29,7 +29,7 @@
     <t>芝加哥经济学派</t>
   </si>
   <si>
-    <t>政策_政策_貨幣政策_小罗伯特·卢卡斯</t>
+    <t>政策_政策_货币政策_小罗伯特·卢卡斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E4%B8%BB%E4%B9%89</t>
@@ -47,13 +47,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E4%BF%9D%E5%AE%88%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>新保守主義</t>
+    <t>新保守主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%8D%E6%A5%B5%E4%B8%8D%E5%B9%B2%E9%A0%90</t>
   </si>
   <si>
-    <t>積極不干預</t>
+    <t>积极不干预</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%89%98%E7%A0%94%E7%A9%B6%E6%89%80</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E6%A2%85%E6%A3%AE%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>喬治梅森大學</t>
+    <t>乔治梅森大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%A7%E5%B8%81%E4%B8%BB%E4%B9%89</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E6%96%AF%E8%92%82%E6%A0%BC%E5%8B%92</t>
   </si>
   <si>
-    <t>喬治·斯蒂格勒</t>
+    <t>乔治·斯蒂格勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%87%8C%E5%BE%B7%E9%87%8C%E5%B8%8C%C2%B7%E5%93%88%E8%80%B6%E5%85%8B</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB%E8%80%85%E7%89%A9%E5%83%B9%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>消費者物價指數</t>
+    <t>消费者物价指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%A2%9E%E9%95%BF</t>
@@ -143,13 +143,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E7%90%86%E6%80%A7%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>經濟理性主義</t>
+    <t>经济理性主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%88%E7%8E%87%E5%B8%82%E5%A0%B4%E5%81%87%E8%AA%AA</t>
   </si>
   <si>
-    <t>效率市場假說</t>
+    <t>效率市场假说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%BC%88%E8%AE%BA</t>
@@ -197,19 +197,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>貨幣經濟學</t>
+    <t>货币经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E9%81%B8%E6%93%87%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>公共選擇理論</t>
+    <t>公共选择理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%80%A7%E9%81%B8%E6%93%87%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>理性選擇理論</t>
+    <t>理性选择理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%80%A7%E9%A2%84%E6%9C%9F</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>經濟自由</t>
+    <t>经济自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E8%87%AA%E7%94%B1%E5%8C%96</t>
@@ -305,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E6%94%BF%E5%BA%9C%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>小政府主義</t>
+    <t>小政府主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%BC%80%E5%B8%82%E5%9C%BA%E6%93%8D%E4%BD%9C</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E5%88%B8%E5%88%B6</t>
   </si>
   <si>
-    <t>學券制</t>
+    <t>学券制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E8%B7%AF</t>
@@ -335,13 +335,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>反資本主義</t>
+    <t>反资本主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A6%E9%A1%9E%E5%85%A8%E7%90%83%E5%8C%96%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>另類全球化運動</t>
+    <t>另类全球化运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%85%A8%E7%90%83%E5%8C%96</t>
@@ -413,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%A7%80%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>微觀經濟學</t>
+    <t>微观经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E</t>
@@ -449,9 +449,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E7%B6%93%E6%BF%9F%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>芝加哥經濟學派</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%BA%E8%B4%9D%E5%B0%94%E7%BB%8F%E6%B5%8E%E5%AD%A6%E5%A5%96%E5%BE%97%E4%B8%BB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
@@ -473,7 +470,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E8%96%A9%E7%B9%86%E7%88%BE%E6%A3%AE</t>
   </si>
   <si>
-    <t>保羅·薩繆爾森</t>
+    <t>保罗·萨缪尔森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%92%99%C2%B7%E5%8F%B2%E5%AF%86%E6%96%AF%C2%B7%E5%BA%93%E5%85%B9%E6%B6%85%E8%8C%A8</t>
@@ -521,7 +518,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E7%88%BE%E9%A0%93%C2%B7%E4%BD%9B%E5%88%A9%E6%B0%91</t>
   </si>
   <si>
-    <t>米爾頓·佛利民</t>
+    <t>米尔顿·佛利民</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E8%92%82%E5%B0%94%C2%B7%E5%A5%A5%E6%9E%97</t>
@@ -545,7 +542,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A5%A7%E5%A4%9A%C2%B7%E5%A8%81%E5%BB%89%C2%B7%E8%88%92%E7%88%BE%E8%8C%A8</t>
   </si>
   <si>
-    <t>西奧多·威廉·舒爾茨</t>
+    <t>西奥多·威廉·舒尔茨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E9%98%BF%E7%91%9F%C2%B7%E5%88%98%E6%98%93%E6%96%AF</t>
@@ -557,31 +554,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%80%AB%E6%96%AF%C2%B7%E5%85%8B%E8%90%8A%E5%9B%A0</t>
   </si>
   <si>
-    <t>勞倫斯·克萊因</t>
+    <t>劳伦斯·克莱因</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E5%A3%AB%C2%B7%E6%89%98%E8%B3%93</t>
   </si>
   <si>
-    <t>詹姆士·托賓</t>
+    <t>詹姆士·托宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E6%8B%89%E5%BE%B7%C2%B7%E5%BE%B7%E5%B8%83%E9%AD%AF</t>
   </si>
   <si>
-    <t>傑拉德·德布魯</t>
+    <t>杰拉德·德布鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%9F%A5%E5%BE%B7%C2%B7%E5%8F%B2%E6%9D%B1</t>
   </si>
   <si>
-    <t>理查德·史東</t>
+    <t>理查德·史东</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E8%98%AD%E7%A7%91%C2%B7%E8%8E%AB%E8%BF%AA%E5%88%A9%E5%AE%89%E5%B0%BC</t>
   </si>
   <si>
-    <t>弗蘭科·莫迪利安尼</t>
+    <t>弗兰科·莫迪利安尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7M%C2%B7%E5%B8%83%E5%9D%8E%E5%8D%97</t>
@@ -605,13 +602,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E9%87%8C%E5%A4%AB%C2%B7%E5%93%88%E7%B6%AD%E9%BB%98</t>
   </si>
   <si>
-    <t>特里夫·哈維默</t>
+    <t>特里夫·哈维默</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%88%A9%C2%B7%E9%A6%AC%E5%8F%AF%E7%B6%AD%E8%8C%B2</t>
   </si>
   <si>
-    <t>哈利·馬可維茲</t>
+    <t>哈利·马可维兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%98%E9%A1%BF%C2%B7%E7%B1%B3%E5%8B%92</t>
@@ -629,9 +626,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E7%91%9E%C2%B7%E8%B2%9D%E5%85%8B</t>
   </si>
   <si>
-    <t>蓋瑞·貝克</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E6%A0%BC%E6%8B%89%E6%96%AF%C2%B7%E8%AF%BA%E6%96%AF</t>
   </si>
   <si>
@@ -683,7 +677,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E8%92%99%E4%BB%A3%E7%88%BE</t>
   </si>
   <si>
-    <t>羅伯特·蒙代爾</t>
+    <t>罗伯特·蒙代尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E8%B5%AB%E5%85%8B%E6%9B%BC</t>
@@ -791,7 +785,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E5%85%8B%E9%AD%AF%E6%A0%BC%E6%9B%BC</t>
   </si>
   <si>
-    <t>保羅·克魯格曼</t>
+    <t>保罗·克鲁格曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E8%8E%89%E8%AF%BA%C2%B7%E5%A5%A5%E6%96%AF%E7%89%B9%E7%BD%97%E5%A7%86</t>
@@ -827,7 +821,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E7%91%AA%E6%96%AF%C2%B7%E8%96%A9%E9%87%91%E7%89%B9</t>
   </si>
   <si>
-    <t>托瑪斯·薩金特</t>
+    <t>托玛斯·萨金特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E6%96%AF%E6%89%98%E5%BC%97%C2%B7%E8%A5%BF%E5%A7%86%E6%96%AF</t>
@@ -863,7 +857,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%8B%83%C2%B7%E5%B8%AD%E5%8B%92</t>
   </si>
   <si>
-    <t>羅勃·席勒</t>
+    <t>罗勃·席勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A9%C2%B7%E6%A2%AF%E8%8B%A5%E5%B0%94</t>
@@ -905,7 +899,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E7%BE%85%E5%BE%B7%C2%B7%E9%9C%8D%E7%89%B9%E6%9E%97</t>
   </si>
   <si>
-    <t>哈羅德·霍特林</t>
+    <t>哈罗德·霍特林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%91%9F%E5%A4%AB%C2%B7%E7%86%8A%E5%BD%BC%E7%89%B9</t>
@@ -923,9 +917,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E5%A3%AB%C2%B7%E6%89%98%E5%AE%BE</t>
   </si>
   <si>
-    <t>詹姆士·托宾</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%AE%E5%B6%8B%E9%80%9A%E5%A4%AB</t>
   </si>
   <si>
@@ -941,7 +932,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%87%E6%BE%A4%E5%BC%98%E6%96%87</t>
   </si>
   <si>
-    <t>宇澤弘文</t>
+    <t>宇泽弘文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E8%AF%BA%E4%BB%80%C2%B7%E7%A7%91%E5%B0%94%E5%A5%88</t>
@@ -959,7 +950,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E7%88%BE%C2%B7W%C2%B7%E5%96%AC%E6%A0%B9%E6%A3%AE</t>
   </si>
   <si>
-    <t>戴爾·W·喬根森</t>
+    <t>戴尔·W·乔根森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%B0%BC%C2%B7%E9%98%BF%E7%89%B9%E9%87%91%E6%A3%AE</t>
@@ -1001,13 +992,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%93%88%E5%BE%B7%E6%9B%BC%C2%B7%E6%91%A9%E7%88%BE</t>
   </si>
   <si>
-    <t>約翰·哈德曼·摩爾</t>
+    <t>约翰·哈德曼·摩尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1025,7 +1016,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1043,7 +1034,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -1055,13 +1046,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E5%AD%B8%E8%AD%9C%E7%B3%BB%E8%A8%88%E7%95%AB</t>
   </si>
   <si>
-    <t>數學譜系計畫</t>
+    <t>数学谱系计画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -3491,7 +3482,7 @@
         <v>143</v>
       </c>
       <c r="F72" t="s">
-        <v>144</v>
+        <v>3</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3517,10 +3508,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>5</v>
@@ -3546,10 +3537,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -3575,10 +3566,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -3604,10 +3595,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -3633,10 +3624,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3662,10 +3653,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3691,10 +3682,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -3720,10 +3711,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -3749,10 +3740,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" t="s">
         <v>161</v>
-      </c>
-      <c r="F81" t="s">
-        <v>162</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3807,10 +3798,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>162</v>
+      </c>
+      <c r="F83" t="s">
         <v>163</v>
-      </c>
-      <c r="F83" t="s">
-        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3836,10 +3827,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F84" t="s">
         <v>165</v>
-      </c>
-      <c r="F84" t="s">
-        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -3865,10 +3856,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>166</v>
+      </c>
+      <c r="F85" t="s">
         <v>167</v>
-      </c>
-      <c r="F85" t="s">
-        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>6</v>
@@ -3894,10 +3885,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>168</v>
+      </c>
+      <c r="F86" t="s">
         <v>169</v>
-      </c>
-      <c r="F86" t="s">
-        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3923,10 +3914,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>170</v>
+      </c>
+      <c r="F87" t="s">
         <v>171</v>
-      </c>
-      <c r="F87" t="s">
-        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3952,10 +3943,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>172</v>
+      </c>
+      <c r="F88" t="s">
         <v>173</v>
-      </c>
-      <c r="F88" t="s">
-        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3981,10 +3972,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" t="s">
         <v>175</v>
-      </c>
-      <c r="F89" t="s">
-        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4010,10 +4001,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" t="s">
         <v>177</v>
-      </c>
-      <c r="F90" t="s">
-        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4039,10 +4030,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>178</v>
+      </c>
+      <c r="F91" t="s">
         <v>179</v>
-      </c>
-      <c r="F91" t="s">
-        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4068,10 +4059,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>180</v>
+      </c>
+      <c r="F92" t="s">
         <v>181</v>
-      </c>
-      <c r="F92" t="s">
-        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>2</v>
@@ -4126,10 +4117,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>182</v>
+      </c>
+      <c r="F94" t="s">
         <v>183</v>
-      </c>
-      <c r="F94" t="s">
-        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4155,10 +4146,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>184</v>
+      </c>
+      <c r="F95" t="s">
         <v>185</v>
-      </c>
-      <c r="F95" t="s">
-        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4184,10 +4175,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>186</v>
+      </c>
+      <c r="F96" t="s">
         <v>187</v>
-      </c>
-      <c r="F96" t="s">
-        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4213,10 +4204,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>188</v>
+      </c>
+      <c r="F97" t="s">
         <v>189</v>
-      </c>
-      <c r="F97" t="s">
-        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4242,10 +4233,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>190</v>
+      </c>
+      <c r="F98" t="s">
         <v>191</v>
-      </c>
-      <c r="F98" t="s">
-        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -4271,10 +4262,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>192</v>
+      </c>
+      <c r="F99" t="s">
         <v>193</v>
-      </c>
-      <c r="F99" t="s">
-        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4300,10 +4291,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>194</v>
+      </c>
+      <c r="F100" t="s">
         <v>195</v>
-      </c>
-      <c r="F100" t="s">
-        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4329,10 +4320,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>196</v>
+      </c>
+      <c r="F101" t="s">
         <v>197</v>
-      </c>
-      <c r="F101" t="s">
-        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4358,10 +4349,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>198</v>
+      </c>
+      <c r="F102" t="s">
         <v>199</v>
-      </c>
-      <c r="F102" t="s">
-        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4387,10 +4378,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>200</v>
+      </c>
+      <c r="F103" t="s">
         <v>201</v>
-      </c>
-      <c r="F103" t="s">
-        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4445,10 +4436,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F105" t="s">
-        <v>204</v>
+        <v>30</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4503,10 +4494,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F107" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4532,10 +4523,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F108" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4561,10 +4552,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F109" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4590,10 +4581,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F110" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -4619,10 +4610,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F111" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4648,10 +4639,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F112" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4677,10 +4668,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F113" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4706,10 +4697,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F114" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G114" t="n">
         <v>14</v>
@@ -4735,10 +4726,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F115" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4764,10 +4755,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F116" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -4793,10 +4784,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F117" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -4822,10 +4813,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F118" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4851,10 +4842,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F119" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4880,10 +4871,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F120" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4909,10 +4900,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F121" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4938,10 +4929,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F122" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4967,10 +4958,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F123" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4996,10 +4987,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F124" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5025,10 +5016,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F125" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5054,10 +5045,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F126" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5083,10 +5074,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F127" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5112,10 +5103,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F128" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5141,10 +5132,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F129" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5170,10 +5161,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F130" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -5199,10 +5190,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F131" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
@@ -5228,10 +5219,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F132" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -5257,10 +5248,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F133" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5286,10 +5277,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F134" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5315,10 +5306,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F135" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5344,10 +5335,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F136" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -5373,10 +5364,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F137" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5402,10 +5393,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F138" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5431,10 +5422,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F139" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5460,10 +5451,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F140" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -5489,10 +5480,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F141" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5518,10 +5509,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F142" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5547,10 +5538,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F143" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5576,10 +5567,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F144" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
@@ -5605,10 +5596,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F145" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5634,10 +5625,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F146" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -5663,10 +5654,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F147" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5692,10 +5683,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F148" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5721,10 +5712,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F149" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -5750,10 +5741,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F150" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5779,10 +5770,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F151" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5808,10 +5799,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F152" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5837,10 +5828,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F153" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5866,10 +5857,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F154" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5895,10 +5886,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>148</v>
+      </c>
+      <c r="F155" t="s">
         <v>149</v>
-      </c>
-      <c r="F155" t="s">
-        <v>150</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5924,10 +5915,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>146</v>
+      </c>
+      <c r="F156" t="s">
         <v>147</v>
-      </c>
-      <c r="F156" t="s">
-        <v>148</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5953,10 +5944,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>164</v>
+      </c>
+      <c r="F157" t="s">
         <v>165</v>
-      </c>
-      <c r="F157" t="s">
-        <v>166</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -5982,10 +5973,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>150</v>
+      </c>
+      <c r="F158" t="s">
         <v>151</v>
-      </c>
-      <c r="F158" t="s">
-        <v>152</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6011,10 +6002,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>158</v>
+      </c>
+      <c r="F159" t="s">
         <v>159</v>
-      </c>
-      <c r="F159" t="s">
-        <v>160</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6040,10 +6031,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>184</v>
+      </c>
+      <c r="F160" t="s">
         <v>185</v>
-      </c>
-      <c r="F160" t="s">
-        <v>186</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6069,10 +6060,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>156</v>
+      </c>
+      <c r="F161" t="s">
         <v>157</v>
-      </c>
-      <c r="F161" t="s">
-        <v>158</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6098,10 +6089,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>194</v>
+      </c>
+      <c r="F162" t="s">
         <v>195</v>
-      </c>
-      <c r="F162" t="s">
-        <v>196</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6127,10 +6118,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F163" t="s">
-        <v>302</v>
+        <v>181</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6156,10 +6147,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>178</v>
+      </c>
+      <c r="F164" t="s">
         <v>179</v>
-      </c>
-      <c r="F164" t="s">
-        <v>180</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6185,10 +6176,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>186</v>
+      </c>
+      <c r="F165" t="s">
         <v>187</v>
-      </c>
-      <c r="F165" t="s">
-        <v>188</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6214,10 +6205,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>190</v>
+      </c>
+      <c r="F166" t="s">
         <v>191</v>
-      </c>
-      <c r="F166" t="s">
-        <v>192</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6243,10 +6234,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F167" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6272,10 +6263,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F168" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6301,10 +6292,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F169" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6330,10 +6321,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>182</v>
+      </c>
+      <c r="F170" t="s">
         <v>183</v>
-      </c>
-      <c r="F170" t="s">
-        <v>184</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6359,10 +6350,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F171" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6388,10 +6379,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F172" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6417,10 +6408,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F173" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6446,10 +6437,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F174" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6475,10 +6466,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F175" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6504,10 +6495,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F176" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6533,10 +6524,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F177" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6562,10 +6553,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F178" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6591,10 +6582,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F179" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6620,10 +6611,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F180" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6649,10 +6640,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F181" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6678,10 +6669,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F182" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6707,10 +6698,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F183" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6736,10 +6727,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F184" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6765,10 +6756,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F185" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -6794,10 +6785,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F186" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -6823,10 +6814,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F187" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -6852,10 +6843,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F188" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -6881,10 +6872,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F189" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -6910,10 +6901,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F190" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -6939,10 +6930,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F191" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -6968,10 +6959,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F192" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -6997,10 +6988,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F193" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G193" t="n">
         <v>3</v>
@@ -7026,10 +7017,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F194" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7055,10 +7046,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F195" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7084,10 +7075,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F196" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7113,10 +7104,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F197" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7142,10 +7133,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F198" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7171,10 +7162,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F199" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7200,10 +7191,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F200" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7229,10 +7220,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F201" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7258,10 +7249,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F202" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
